--- a/src/main/resources/stockinfo.xlsx
+++ b/src/main/resources/stockinfo.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>8.05</v>
+        <v>7.9</v>
       </c>
       <c r="D4">
         <v>8.5</v>

--- a/src/main/resources/stockinfo.xlsx
+++ b/src/main/resources/stockinfo.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D2">
         <v>3.1</v>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D3">
         <v>3.8</v>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="D4">
         <v>8.5</v>
@@ -1121,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>19.8</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>21</v>
